--- a/medicine/Pharmacie/Venlafaxine/Venlafaxine.xlsx
+++ b/medicine/Pharmacie/Venlafaxine/Venlafaxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La venlafaxine, est un antidépresseur utilisé pour le traitement de la dépression et les troubles anxieux. C'est un inhibiteur de la recapture de la sérotonine et de la noradrénaline (IRSNa). À doses élevées, il inhibe également la recapture de la dopamine, mais dans une moindre mesure. Son nom commercial est Effexor (de l'entreprise Wyeth).
@@ -513,10 +525,12 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les personnes possédant l'allèle (T ; T) de rs2032583[3] SNP du gène ABCB1 ont 7 fois moins de chances de répondre au traitement à la venlafaxine. Cette variante génétique est présente chez deux tiers des personnes d'origine européenne et jusqu'à 90 % des Asiatiques.
-Il est aussi important de souligner que les mauvais métaboliseurs de l'isoenzyme CYP2D6[4] ont un risque conséquent de surdose et ressentiront beaucoup plus les effets secondaires, même à faible dose.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les personnes possédant l'allèle (T ; T) de rs2032583 SNP du gène ABCB1 ont 7 fois moins de chances de répondre au traitement à la venlafaxine. Cette variante génétique est présente chez deux tiers des personnes d'origine européenne et jusqu'à 90 % des Asiatiques.
+Il est aussi important de souligner que les mauvais métaboliseurs de l'isoenzyme CYP2D6 ont un risque conséquent de surdose et ressentiront beaucoup plus les effets secondaires, même à faible dose.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La venlafaxine est utilisée dans la dépression nerveuse sévère et le trouble panique avec ou sans agoraphobie. Elle est également utilisée, accompagnée d'un thymorégulateur, dans le traitement de certains troubles bipolaires.
-Dans le cas où il existe des dysfonctions sexuelles (désir sexuel hypoactif, anorgasmie, trouble de l'excitation…) antérieures à l'apparition d'un état dépressif, une utilisation de la venlafaxine devra impérativement être évitée[5].
+Dans le cas où il existe des dysfonctions sexuelles (désir sexuel hypoactif, anorgasmie, trouble de l'excitation…) antérieures à l'apparition d'un état dépressif, une utilisation de la venlafaxine devra impérativement être évitée.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le trouble panique, la Haute Autorité de santé française estime dans son avis d'octobre 2008 que la venlafaxine « n’apporte pas d’amélioration du service médical rendu par rapport aux autres médicaments disponibles dans cette indication ». Les études ne prouvent pas d'efficacité de la molécule avant 12 semaines de traitement en comparaison avec un placebo. Elles montrent aussi que les rechutes des troubles paniques semblaient moins nombreuses après six mois de traitement chez les patients répondeurs à la venlafaxine[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le trouble panique, la Haute Autorité de santé française estime dans son avis d'octobre 2008 que la venlafaxine « n’apporte pas d’amélioration du service médical rendu par rapport aux autres médicaments disponibles dans cette indication ». Les études ne prouvent pas d'efficacité de la molécule avant 12 semaines de traitement en comparaison avec un placebo. Elles montrent aussi que les rechutes des troubles paniques semblaient moins nombreuses après six mois de traitement chez les patients répondeurs à la venlafaxine.
 </t>
         </is>
       </c>
@@ -608,11 +626,13 @@
           <t>Posologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est important de suivre les recommandations du médecin et de respecter la posologie inscrite sur l'étiquette. Il s'agit d'une forme de stimulant, mais la venlafaxine est aussi très anxiolytique, il est donc possible de la prendre le matin ou le soir, et ce avec de la nourriture pour éviter les sensations de brûlure d'estomac qu'elle peut provoquer, surtout en début de traitement.
 Pour amoindrir les effets secondaires, un dosage progressif pendant les 10 premiers jours est recommandé. Lors de la fin de l'utilisation, le processus inverse est fait sur quelques semaines (sevrage). La consommation d'alcool est déconseillée pendant l'utilisation de ce produit.
-La venlafaxine et son métabolite actif, l'ODV (O-desméthylvenlafaxine) atteignent leurs pics de concentrations plasmatiques entre 6,0 ± 1,5 et 8,8 ± 2,2 heures, respectivement, après la prise du médicament[7]. Les effets recherchés du médicament seront à leurs maxima à ces heures. Les effets stimulants indésirables (par exemple, troubles du sommeil et insomnies) peuvent être modulés par une prise du médicament adaptée au cycle jour-nuit.
+La venlafaxine et son métabolite actif, l'ODV (O-desméthylvenlafaxine) atteignent leurs pics de concentrations plasmatiques entre 6,0 ± 1,5 et 8,8 ± 2,2 heures, respectivement, après la prise du médicament. Les effets recherchés du médicament seront à leurs maxima à ces heures. Les effets stimulants indésirables (par exemple, troubles du sommeil et insomnies) peuvent être modulés par une prise du médicament adaptée au cycle jour-nuit.
 </t>
         </is>
       </c>
@@ -641,16 +661,87 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les effets secondaires peuvent varier d'une personne à l'autre[8],[9].
-Très fréquents
-Affectent plus d'une personne sur dix traitées
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires peuvent varier d'une personne à l'autre,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Venlafaxine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Venlafaxine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Très fréquents</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Affectent plus d'une personne sur dix traitées
 Vertiges et maux de tête
 Nausées, bouche sèche
-Hypersudation (notamment nocturne)
-Fréquents
-Jusqu’à une personne sur dix
+Hypersudation (notamment nocturne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Venlafaxine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Venlafaxine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fréquents</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Jusqu’à une personne sur dix
 Perte d’appétit
 Confusion, sensation d’être séparé (ou détaché) de soi-même, absence d’orgasme, baisse de la libido, nervosité, insomnie, rêves anormaux
 Somnolence, tremblements, sensation de picotements, augmentation du tonus musculaire
@@ -663,9 +754,43 @@
 Besoin plus fréquent d’uriner, difficultés à uriner
 Irrégularités menstruelles telles qu’une augmentation des saignements ou saignements irréguliers (chez la femme), éjaculations/orgasmes anormaux (hommes), trouble érectile (impuissance)
 Faiblesse (asthénie), fatigue, frissons
-Augmentation du cholestérol
-Peu fréquents
-Une personne sur cent
+Augmentation du cholestérol</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Venlafaxine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Venlafaxine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Peu fréquents</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Une personne sur cent
 Hallucinations, sensation d’être séparé (ou détaché) de la réalité, agitation, orgasmes anormaux (femmes), absence de sentiment ou d’émotion, sensation de surexcitation, grincement des dents
 Sensation d’agitation ou incapacité à rester assis ou debout tranquillement, évanouissement, mouvements involontaires des muscles, troubles de la coordination et de l’équilibre, sensation d’altération du goût
 Battements cardiaques rapides, sensations d’étourdissement (particulièrement lors des passages rapides à la station debout)
@@ -673,42 +798,78 @@
 Vomissements de sang, selles goudronneuses (fèces) ou sang dans les selles – qui peuvent être un signe de saignement interne
 Gonflement général de la peau, démangeaisons (urticaire), sensibilité à la lumière du soleil, bleus, éruptions cutanées, perte anormale des cheveux
 Incapacité à uriner
-Gain ou perte de poids
-Rare
-Une personne sur mille
+Gain ou perte de poids</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Venlafaxine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Venlafaxine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Une personne sur mille
 Convulsions ou crises convulsives
 Incapacité à contrôler les mictions (incontinence urinaire)
 Suractivité, accélération de la pensée et perte du sommeil (manie)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Venlafaxine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Venlafaxine</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Venlafaxine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Venlafaxine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Interactions médicamenteuses[10]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Associer la venlafaxine avec d'autres substances agissant sur la sérotonine (IMAO, Tramadol[11], MDMA[12]…) peut induire un syndrome sérotoninergique.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Associer la venlafaxine avec d'autres substances agissant sur la sérotonine (IMAO, Tramadol, MDMA…) peut induire un syndrome sérotoninergique.
 </t>
         </is>
       </c>
